--- a/K-Means_clusters.xlsx
+++ b/K-Means_clusters.xlsx
@@ -25,28 +25,28 @@
     <t>cluster_num</t>
   </si>
   <si>
-    <t>[167374, 192385, 70572, 118303, 118538, 118444, 76837, 76834, 76833, 72154, 75107, 73509, 72666, 76739, 75429, 75201, 74919, 74905, 74883, 74843, 75005, 73934, 73799, 73247, 152040, 72787, 72757, 72518, 72239, 72085, 72052, 152078, 76742, 76396, 75426, 75388, 75145, 74484, 74286, 74061, 73758, 73723, 73531, 73513, 73439, 73253, 73206, 73067, 72812, 72753, 152055, 72390, 72231, 72107, 76147, 75631, 75625, 72945, 72147, 118962, 70563, 129677, 210941, 206200, 164922, 69891, 140824, 138184, 136180, 212127, 119443, 71525, 120048, 119875, 140844, 164800, 70423, 120250, 71355, 161854, 138569, 71358, 70630, 69535, 120834, 120829, 129750, 119873, 69957, 210289, 71113, 120630, 190761, 143475, 71090, 70350, 138584, 77028, 186151, 183476, 211637, 143479, 69504, 212117, 70479, 119446, 145692, 139107, 120701, 166223, 149304, 71050, 70765, 70739, 70541, 70358, 70352, 147120, 71526, 130662, 71088, 120120, 216049, 69714, 148972, 194909, 124920, 71051, 70707, 120590, 129739, 120464, 120070, 119367, 119366, 175318, 211073, 70539, 70111, 70106, 71527, 71478, 71215, 71207, 120136, 120143, 119945, 119956, 119354, 118952, 70918, 70512, 69824, 119975, 119714, 119633, 119625, 119535, 119546, 119368, 119285, 119122, 118756, 118778, 147521, 177814, 141541, 140847, 138189, 136181, 125206, 70858, 70683, 70485, 70420, 70419, 168201, 70199, 69870, 69666, 69642, 71607, 71356, 71383, 120988, 120832, 120822, 120831, 120616, 120593, 129752, 129667, 129668, 120249, 120248, 120246, 120126, 120141, 145953, 119457, 119356, 129694, 185529, 144367, 138186, 125205, 70591, 212375, 120140, 118363, 211833, 179296, 120828, 120687, 160215, 183313, 183315, 182938, 179085, 69841, 69840, 69839, 119355, 69910, 167375, 165163, 70355, 120971, 119953, 145893, 210003, 179473, 158499, 205618, 119038, 145850, 76883, 73500, 119784, 120175, 70028, 119449, 70681, 119445, 119056, 120504, 118259, 147740, 119300, 184149, 70137, 129784, 120276, 70245, 190294, 214521]</t>
-  </si>
-  <si>
-    <t>[75007, 118780, 119294, 76879, 76678, 76954, 73539, 76131, 75945, 75411, 75398, 75387, 75175, 74609, 73521, 77145, 76349, 76746, 76308, 75715, 75610, 75605, 75598, 75132, 74852, 74948, 74942, 77194, 74648, 74624, 74237, 74068, 73989, 73777, 73544, 73467, 73461, 73309, 73279, 73041, 72664, 72541, 72486, 72371, 72247, 72175, 77049, 75736, 75728, 75727, 76653, 76579, 76503, 76501, 76488, 76412, 76243, 75552, 75540, 75538, 75381, 75208, 75186, 75164, 75162, 75153, 75128, 74910, 75003, 74993, 74706, 74703, 74700, 74680, 74642, 74521, 74500, 74439, 74335, 74290, 74224, 74066, 74020, 74018, 73995, 73951, 73927, 73768, 73730, 73545, 73453, 73434, 73321, 73302, 73255, 73226, 73086, 73044, 72956, 72938, 72935, 72771, 152032, 72746, 72699, 72698, 72646, 72645, 152056, 72542, 72540, 72484, 72459, 72383, 72356, 72350, 72332, 72326, 72320, 72304, 72300, 72243, 72241, 72238, 72237, 72227, 72226, 72217, 72197, 72170, 72090, 72088, 71868, 76251, 76170, 75738, 76340, 76158, 75648, 75735, 75976, 74463, 73487, 75748, 75532, 190181, 75356, 75178, 75144, 77192, 74252, 72229, 72102, 72063, 71993, 76344, 74498, 72625, 70570, 214513, 136168, 164098, 118607, 77076, 157331, 76963, 205613, 119520, 179457, 118618, 118625, 118631, 120131, 119699, 129672, 174786, 174783, 158429, 120594, 120133, 119869, 119618, 118789, 118612, 118604, 118542, 118345, 158451, 119544, 119111, 118632, 118533, 118435, 118290, 125216, 125185, 70991, 70638, 71649, 120627, 120237, 119894, 118932, 120997, 120473, 118537, 140317, 120958, 118883, 147265, 120163, 119101, 70167, 192734, 76921, 118683, 118695, 118854, 118878, 73743, 119359, 119360, 118245, 70348, 118452]</t>
-  </si>
-  <si>
-    <t>[120823, 138226, 76752, 69676, 75804, 190229, 129754, 74516, 76574, 76048, 75935, 75121, 74896, 74978, 74960, 74452, 74313, 74250, 73480, 73221, 72948, 72617, 72308, 72101, 77058, 75973, 75758, 76219, 75588, 75575, 75565, 75517, 75150, 75147, 75119, 74870, 74973, 74709, 74702, 74696, 74662, 74652, 74650, 74511, 74485, 74285, 73959, 73282, 72999, 72829, 72796, 72768, 72654, 152054, 72632, 72609, 72605, 72378, 72196, 72106, 72009, 75956, 75747, 76941, 76259, 75623, 76072, 76157, 75123, 72641, 72453, 119297, 70390, 166012, 75360, 170892, 118370, 70139, 70731, 70453, 120878, 120998, 175316, 70990, 118547, 118443, 71135, 119444, 146513, 71194, 129747, 69501, 119876, 212507, 118299, 70483, 118447, 70418, 71646, 192845, 118541, 64822, 70887, 69541, 212325, 120969, 119031, 118466, 150835, 192382, 70893, 70861, 146355, 70484, 70482, 70277, 70203, 209947, 71384, 71273, 129670, 118943, 118959, 118421, 69684, 118788, 118601, 174940, 142475, 210073, 127759, 125217, 70983, 70915, 210007, 70360, 69875, 69629, 69574, 69542, 69537, 71369, 212219, 71188, 120591, 120494, 120495, 120267, 120147, 120138, 120122, 120121, 120084, 120277, 71535, 129793, 119353, 209967, 143909, 71628, 212299, 70637, 69916, 120719, 120587, 118297, 190212, 210229, 145969, 118293, 70703, 120284, 119442, 70655, 69543, 70509, 71601, 77051, 119524, 118881, 118847, 190207, 76942, 120410, 118543, 119878, 118465, 118536, 118532, 69568, 145934, 71196, 120979, 118372, 166435]</t>
-  </si>
-  <si>
-    <t>[71846, 120176, 118611, 146042, 77021, 76831, 75609, 75560, 75410, 75183, 73945, 73520, 73230, 76572, 76037, 75417, 74847, 74647, 73988, 73715, 73535, 73533, 73460, 72548, 72517, 72125, 75667, 76045, 75944, 75841, 75606, 75603, 75602, 75436, 75207, 75189, 74698, 74657, 74631, 74625, 74522, 74504, 74344, 74268, 74254, 74245, 74123, 74125, 74099, 74084, 73983, 73710, 73564, 73088, 73048, 73007, 72954, 72817, 72816, 72799, 72751, 72678, 72660, 72651, 152052, 72611, 72536, 72519, 72489, 72462, 72384, 72377, 72369, 72310, 72306, 72194, 72187, 72042, 75668, 75658, 75656, 76166, 76253, 76070, 76950, 75929, 75136, 74471, 74443, 74278, 73209, 72146, 72089, 76667, 64821, 72358, 77018, 170871, 118938, 150860, 210267, 118344, 119179, 120344, 70831, 69533, 118535, 208891, 144362, 70656, 145967, 119622, 118622, 118605, 118417, 150942, 119283, 119113, 119027, 70191, 212377, 192840, 120855, 120732, 118799, 119112, 118294, 69796, 120957, 71351, 210193, 160221, 205674, 76757, 76962, 77042, 118872, 118692, 76821, 118693, 77069, 119358, 138567]</t>
-  </si>
-  <si>
-    <t>[165171, 133481, 119276, 118460, 118853, 212425, 159788, 140320, 177819, 146045, 176571, 176463, 142045, 69689, 138188, 72683, 72142, 76648, 75133, 74908, 74902, 74861, 74968, 74623, 74469, 74465, 74247, 74030, 73999, 73793, 73773, 73677, 73534, 73519, 73334, 73232, 73076, 73049, 72819, 72537, 72396, 72203, 72149, 75863, 76675, 76749, 76496, 76418, 76411, 76238, 75401, 75139, 74916, 74869, 74694, 74663, 74326, 74298, 74065, 74022, 73946, 73937, 73490, 73441, 73330, 73322, 73188, 73078, 73008, 72964, 72821, 72786, 72655, 72638, 72547, 72503, 72496, 72399, 72397, 72223, 72002, 71998, 71992, 71901, 76882, 76254, 75862, 75649, 75206, 74963, 74043, 73917, 73750, 119721, 125202, 70565, 158500, 214711, 158873, 65018, 147677, 70168, 141543, 118939, 120238, 119533, 194196, 70506, 119707, 212367, 184151, 212433, 215445, 70009, 148885, 118241, 179082, 160230, 149861, 135880, 71106, 172357, 186654, 160223, 170914, 70349, 182936, 166454, 69683, 169411, 74309, 71840, 208911, 71456, 118426, 120968, 130660, 179933, 172339, 150814, 149298, 166175, 71011, 70200, 210183, 71365, 139105, 138564, 70386, 69580, 145894, 119908, 119030, 120599, 175114, 70010, 212161, 71455, 191003, 125213, 125208, 71010, 70449, 145685, 120155, 119203, 197615, 174785, 171612, 209146, 71102, 70599, 70600, 70346, 146356, 71534, 71554, 71536, 71444, 129669, 120257, 120251, 120145, 119616, 145617, 118937, 118944, 118540, 118534, 208476, 158471, 139109, 186655, 160216, 65016, 119273, 127736, 71081, 70505, 70504, 207518, 193359, 173224, 171420, 168274, 164785, 145368, 141559, 140297, 140818, 70860, 70770, 139803, 70632, 70564, 70486, 70454, 70284, 70195, 70138, 70114, 210187, 120966, 120851, 120597, 129746, 120496, 120134, 120144, 120142, 120161, 120050, 145958, 212301, 71216, 129748, 120289, 71608, 119188, 118610, 120596, 205665, 158763, 142048, 71078, 212205, 120965, 120130, 119623, 118364, 64818, 209334, 194911, 173218, 171611, 150813, 210303, 133478, 70244, 210927, 182294, 179102, 165165, 71087, 69848, 120830, 142051, 71473, 71353, 118289, 146036, 65021, 168186, 70319, 185530, 163579, 141542, 168172, 129751, 210937, 140293, 70429, 145849, 118845, 118843, 118696, 136515, 169589, 174952, 69893, 120967, 118961, 136167, 71551, 119537, 138583, 120708, 120471, 120166, 119191, 119982, 145891, 160191, 129661, 74215, 119634, 158786, 118967, 163584]</t>
-  </si>
-  <si>
-    <t>[118253, 65017, 69915, 71871, 76756, 77025, 76822, 120531, 73702, 76735, 76646, 76134, 76054, 76043, 75947, 75839, 75597, 74447, 74293, 74282, 73705, 73546, 73492, 73447, 73068, 72842, 72083, 72078, 71878, 76342, 76830, 76520, 76405, 75939, 75848, 75827, 75593, 75567, 75427, 75359, 75205, 75187, 75160, 75152, 75117, 75111, 74909, 74894, 74872, 74933, 74337, 74320, 74218, 74266, 74233, 74067, 73753, 73714, 73325, 73265, 73217, 73183, 73017, 73003, 72973, 152009, 72754, 72601, 72546, 72528, 72500, 72488, 72482, 72480, 72479, 72349, 72327, 72179, 72144, 72012, 71996, 71974, 71969, 71898, 76154, 75974, 75633, 76672, 76867, 76763, 76222, 74070, 74849, 74027, 73511, 72793, 70353, 120278, 119272, 69605, 70592, 160202, 70939, 170896, 71890, 118792, 209959, 125210, 139110, 77023, 76194, 120022, 145834, 71293, 212135, 69868, 70936, 119706, 120990, 71372, 148864, 125074, 70764, 159784, 125073, 142233, 171356, 71387, 71382, 165654, 120736, 120706, 129785, 120081, 71152, 119901, 119624, 118776, 119029, 118469, 70791, 70662, 70598, 70481, 69845, 69789, 69641, 69604, 69546, 212401, 71623, 120582, 129704, 129710, 120247, 120835, 159555, 118609, 129736, 71459, 69571, 212437, 145933, 165173, 120602, 69790, 145413, 70835, 70246, 121014, 212321, 118871, 146012, 145870, 118887, 118716, 118850, 76945, 76764, 120052, 212335, 70834, 119195, 119879, 118242, 119958, 71172, 145951, 120186, 74272]</t>
-  </si>
-  <si>
-    <t>[119193, 184658, 118686, 208477, 69740, 205652, 72156, 76760, 76778, 214537, 69745, 75535, 75531, 72333, 76489, 75518, 74967, 74276, 73986, 73950, 73720, 73089, 72398, 71849, 76755, 76580, 76508, 76502, 76397, 76239, 75574, 75354, 75181, 74944, 74675, 74503, 74085, 74057, 73692, 73528, 72807, 72790, 72690, 152048, 72471, 72357, 72354, 72353, 72188, 71997, 71989, 71942, 76873, 75726, 76257, 118694, 76782, 76431, 75858, 76964, 74515, 75188, 73998, 73488, 145878, 70457, 205654, 205636, 171432, 214527, 140845, 70011, 166431, 157550, 149295, 209329, 172671, 70455, 120239, 119704, 120837, 160657, 209331, 175558, 185121, 183092, 70828, 120533, 168211, 168293, 167376, 166225, 158761, 141539, 120856, 158784, 166189, 185123, 167632, 149860, 184315, 205607, 144816, 209310, 205616, 118608, 185375, 148922, 69890, 69793, 120989, 120853, 118431, 207124, 205605, 205614, 179179, 175552, 209921, 69659, 212157, 212171, 178057, 177956, 166209, 157303, 69894, 120047, 119619, 119192, 178052, 157274, 69874, 187686, 178680, 71613, 70057, 185860, 70733, 185853, 184316, 164097, 157560, 149312, 70966, 70538, 70351, 129660, 118471, 70083, 120696, 214469, 211829, 211645, 207123, 205619, 192746, 184651, 181013, 179172, 160656, 146352, 168202, 71469, 71184, 120271, 119868, 119703, 118942, 118755, 134213, 208887, 178651, 178674, 178213, 158498, 69716, 119534, 119284, 119190, 118531, 118298, 70535, 176568, 70985, 213113, 209627, 207519, 207132, 207134, 214713, 183477, 183479, 179180, 170931, 186653, 161829, 125184, 70571, 70507, 70458, 70394, 210211, 69869, 69710, 69685, 69625, 212411, 212255, 71192, 212351, 120688, 120146, 119954, 120160, 121000, 119867, 129757, 120486, 209332, 209633, 193358, 183775, 167383, 166244, 120139, 119874, 209639, 185599, 145789, 133477, 168184, 69821, 119189, 120811, 183581, 140315, 210647, 167341, 161855, 157302, 146353, 178220, 205664, 70276, 164076, 163581, 185520, 208902, 210643, 118874, 77017, 76871, 119705, 145761, 175113, 214507, 118544, 119642, 118291, 119205, 147121, 140825, 70086]</t>
-  </si>
-  <si>
-    <t>[74874, 74855, 71848, 71164, 69820, 119274, 76919, 77024, 76827, 76826, 146013, 76859, 118851, 146034, 74659, 72644, 71449, 75940, 75834, 75601, 75571, 75522, 75190, 75148, 74917, 74518, 74098, 73740, 73681, 73675, 73469, 73246, 73015, 72975, 72840, 72305, 72093, 72050, 71963, 71968, 71785, 76608, 77010, 76927, 76920, 76583, 76223, 76058, 76052, 75822, 75577, 75564, 75533, 75516, 75197, 75116, 74922, 74920, 74913, 74906, 74877, 74845, 75012, 74949, 74665, 74451, 74116, 74114, 74104, 74093, 74075, 74035, 74033, 73982, 73935, 73784, 73774, 73756, 73748, 73712, 73676, 73547, 73317, 73260, 73235, 73085, 73025, 72967, 72742, 72602, 72473, 72376, 72336, 72248, 72211, 72098, 71947, 71812, 77055, 76966, 76612, 76435, 75756, 76929, 76823, 76754, 76650, 76573, 76497, 76398, 76237, 76218, 76128, 75847, 75563, 75559, 75525, 75422, 75390, 75363, 75218, 75212, 75211, 75182, 75173, 75168, 75163, 75156, 75151, 75146, 75142, 75138, 75130, 75120, 74900, 74892, 74878, 74876, 74865, 74991, 74936, 74934, 74930, 74686, 74678, 74674, 74651, 74644, 74632, 74621, 74619, 74524, 74499, 74497, 74487, 74473, 74456, 74445, 74442, 74338, 74331, 74323, 74317, 74305, 74229, 74120, 74071, 74064, 74056, 74032, 74023, 74015, 74006, 74002, 73993, 73958, 73938, 73791, 73737, 73548, 73530, 73516, 73476, 73465, 73458, 73451, 73335, 73333, 73328, 73319, 73304, 73284, 73240, 73213, 73203, 73198, 73170, 73072, 73045, 73020, 73004, 72988, 72974, 72937, 72931, 72837, 72833, 72806, 72778, 72773, 72676, 72675, 72674, 152051, 72658, 72619, 72612, 72534, 72465, 72392, 72374, 72366, 72361, 72337, 72325, 72317, 72312, 72309, 72302, 72222, 72216, 72200, 72201, 72183, 72167, 71990, 71976, 71946, 71944, 71945, 71932, 71906, 71805, 119039, 76874, 76769, 75743, 75729, 75665, 75659, 75653, 75651, 75646, 75647, 75643, 76881, 76336, 75762, 76338, 76169, 76847, 76604, 76600, 76249, 75961, 75770, 73962, 76820, 76643, 74980, 74080, 74021, 73250, 72831, 72697, 72634, 72351, 72235, 72062, 77119, 119997, 70536, 119133, 72510, 119382, 125072, 119532, 145787, 118457, 74945, 76588, 70084, 76669, 206272, 71385, 119967, 120875, 118606, 118247, 145937, 119530, 142050, 118302, 120827, 69507, 71524, 70510, 70788, 120808, 120044, 118933, 118949, 118946, 118948, 118777, 118545, 143053, 119357, 119277, 119212, 118947, 118374, 210053, 183478, 138227, 70628, 70594, 70427, 70392, 70248, 212445, 71638, 71622, 120833, 120592, 129708, 120395, 120071, 212189, 118779, 212347, 120244, 145885, 119877, 214495, 70961, 70984, 69675, 190278, 125218, 120129, 71053, 119645, 120705, 118518, 181685, 190140, 145901, 172673, 70196, 190141, 174955, 77054, 77045, 146035, 118705, 118691, 145841, 77056, 76957, 118701, 146006, 76868, 74119, 118354, 70283, 118273, 119880, 119278, 118425, 118418, 118264, 118260, 118258, 119545, 73698, 71521, 76017, 76581]</t>
+    <t>[71848, 71871, 72156, 75601, 75535, 75531, 74609, 73681, 73469, 72840, 71785, 76920, 76648, 76646, 76583, 76308, 76223, 76054, 76048, 75935, 75533, 75121, 74920, 74906, 74896, 75012, 74960, 74949, 74313, 74033, 73999, 73988, 73982, 73935, 73720, 73705, 73533, 73467, 73447, 73260, 72548, 72098, 76966, 76435, 75756, 75727, 76823, 76754, 76398, 76045, 75603, 75540, 75390, 75187, 75173, 75150, 75120, 74894, 74993, 74702, 74698, 74674, 74662, 74524, 74484, 74456, 74337, 74335, 74320, 74286, 74285, 74254, 74065, 74032, 74018, 74015, 74002, 73758, 73548, 73465, 73451, 73335, 73333, 73072, 73045, 73007, 73003, 72807, 72799, 72778, 72751, 152055, 72660, 72651, 72632, 72612, 72536, 72390, 72378, 72356, 72188, 72107, 71996, 71990, 71989, 76769, 76147, 75747, 75665, 75658, 75656, 76259, 76782, 76070, 75631, 75735, 74515, 73962, 74963, 74980, 74471, 74252, 74021, 73209, 72793, 72634, 76344, 76667, 166012, 171432, 118792, 167376, 120878, 166189, 186151, 183476, 185123, 120968, 175552, 212171, 119444, 157303, 70352, 210183, 119192, 138564, 118302, 70733, 191003, 125074, 64822, 70351, 119031, 197615, 174783, 165654, 120736, 120257, 119901, 119703, 208887, 65016, 119975, 118947, 118632, 118601, 118469, 118374, 70985, 174940, 125217, 70860, 70454, 210211, 120822, 129752, 129746, 120494, 120495, 129667, 120267, 120147, 120134, 120122, 120161, 120121, 118799, 120997, 120473, 120486, 212375, 173218, 70961, 160215, 165165, 118883, 119645, 146353, 120163, 145901, 70703, 140293, 172673, 158499, 76757, 119524, 145870, 118845, 145841, 76957, 76871, 118701, 76764, 74119, 169589, 118544, 70283, 119878, 118273, 71172, 118465, 147121, 145951, 118536, 119537, 73698, 76581, 138567, 0]</t>
+  </si>
+  <si>
+    <t>[120176, 118303, 118460, 118611, 159788, 77025, 74659, 75410, 75107, 75516, 75116, 74624, 74093, 73934, 73546, 72486, 72149, 72052, 152078, 76580, 76573, 76396, 75847, 75563, 75559, 75145, 74511, 74503, 73946, 73328, 72999, 72488, 72479, 72377, 72306, 72243, 75974, 75647, 76336, 76340, 76253, 75770, 74027, 164922, 212127, 119443, 120048, 119875, 140844, 141543, 140845, 164800, 70423, 120250, 118939, 166431, 161854, 157550, 149295, 138569, 70731, 209329, 172671, 125072, 119532, 119533, 119272, 70453, 70630, 194196, 136168, 70506, 70455, 120834, 120829, 129750, 120239, 119873, 119707, 119704, 212367, 64821, 184151, 70592, 212433, 120837, 160657, 160202, 209331, 170896, 164098, 185121, 183092, 190761, 118607, 186654, 125210, 77023, 77018, 157331, 76669, 205616, 205613, 143479, 212135, 212117, 118938, 120989, 120853, 118443, 212157, 166223, 149298, 149304, 71050, 70765, 70541, 70358, 119619, 119706, 119908, 185860, 194909, 70966, 145685, 119366, 211829, 207123, 192746, 150835, 70861, 70788, 211073, 70482, 168202, 120136, 119956, 119624, 119354, 158498, 119714, 119546, 119284, 119285, 119283, 119122, 119111, 118778, 70535, 213113, 207519, 214713, 193359, 179180, 170931, 168274, 141559, 70594, 70571, 70507, 70420, 70360, 70284, 70248, 212401, 120988, 120966, 120597, 120496, 129668, 129710, 120248, 120246, 120126, 120138, 120050, 120071, 119457, 119356, 129694, 118610, 129757, 118537, 119112, 185529, 119623, 118363, 118364, 64818, 150813, 71087, 120719, 145933, 183581, 165173, 140315, 118297, 147265, 65021, 210193, 141542, 119101, 121014, 212321, 185520, 208902, 205674, 146035, 118872, 119784, 120175, 119195, 119278, 118258, 118967]</t>
+  </si>
+  <si>
+    <t>[167374, 192385, 118780, 70572, 119276, 65017, 129754, 76739, 76058, 75518, 75429, 74922, 74905, 74968, 74942, 77194, 74469, 74250, 73247, 73041, 152040, 72617, 72396, 72239, 72203, 72085, 72083, 77055, 76579, 76508, 76502, 76239, 75517, 75426, 75189, 75162, 74892, 74878, 74869, 74499, 74439, 74245, 73528, 73078, 72931, 72790, 72771, 152032, 72690, 72638, 152052, 72547, 72542, 72528, 72399, 72397, 72361, 72310, 72300, 72241, 72226, 72222, 72012, 75738, 75206, 72235, 72229, 72063, 214527, 139110, 118457, 175316, 182936, 166454, 185375, 145692, 205605, 120875, 70739, 157274, 178680, 71088, 145894, 70483, 120827, 164097, 157560, 70510, 118535, 211645, 205619, 179172, 160656, 125073, 70600, 70539, 70484, 70277, 146356, 120808, 129670, 129669, 119616, 118942, 118946, 118755, 70512, 178674, 119368, 119029, 118756, 118531, 70505, 207132, 183479, 142475, 141541, 140297, 138189, 127759, 120832, 120851, 120688, 120732, 120627, 129708, 120395, 120237, 212301, 118932, 121000, 183775, 125205, 209639, 185599, 194911, 120687, 133478, 210927, 183313, 182938, 120958, 118289, 120602, 210647, 168186, 70319, 178220, 160221, 120971, 145893, 76962, 119038, 118881, 118843, 118691, 77056, 119705, 190207, 212335, 214507, 119879, 119056]</t>
+  </si>
+  <si>
+    <t>[165171, 74874, 74855, 75007, 71846, 133481, 138226, 76752, 76827, 120531, 176571, 176463, 142045, 75609, 74098, 73945, 72333, 71968, 77145, 76574, 75839, 75822, 75564, 75417, 74902, 74861, 74847, 74967, 74948, 74452, 74451, 74447, 74247, 74116, 74104, 74030, 73799, 73793, 73748, 73715, 73460, 73235, 73025, 72537, 72211, 72078, 72125, 71947, 71878, 71849, 71812, 76503, 76418, 75944, 75588, 75538, 75401, 75354, 75211, 75168, 75156, 74876, 74678, 74657, 74631, 74619, 74442, 74326, 74224, 74071, 74064, 74056, 74006, 73983, 73951, 73692, 73434, 73330, 73322, 73319, 73226, 73170, 73086, 73067, 72938, 72821, 72817, 72674, 72658, 72655, 152054, 72611, 72546, 72480, 72353, 72332, 72304, 72194, 72183, 72179, 72009, 71992, 71945, 71932, 71901, 71898, 76873, 76881, 76338, 76600, 75858, 75188, 75748, 190181, 75356, 73998, 72146, 77119, 119997, 74498, 65018, 147677, 119382, 72358, 148885, 71890, 175558, 120630, 179082, 120533, 160230, 141539, 77076, 184315, 169411, 120022, 145834, 71840, 206272, 118426, 70479, 210267, 209921, 120701, 118625, 172339, 166209, 71011, 119179, 178052, 212507, 216049, 70831, 212161, 185853, 125213, 125208, 70887, 70538, 70449, 129739, 120464, 119203, 159784, 71102, 70656, 70346, 120133, 145967, 119868, 145617, 118933, 118948, 118622, 119633, 119273, 119212, 70504, 140818, 125216, 125185, 70991, 70392, 168201, 212377, 212411, 120831, 120592, 120289, 129736, 212347, 120965, 119874, 179296, 145789, 70244, 70984, 119355, 120830, 142051, 120129, 167341, 210229, 118293, 119953, 190140, 210003, 70246, 190141, 76921, 118705, 118850, 118847, 76868, 73500, 120410, 120979, 74215, 140825]</t>
+  </si>
+  <si>
+    <t>[120823, 71164, 118444, 77021, 76919, 76837, 76831, 76760, 146045, 76834, 76833, 76879, 76678, 118851, 76954, 72644, 75834, 75571, 75560, 75183, 73521, 73230, 72305, 76572, 76134, 76052, 76043, 75715, 75597, 75133, 75132, 74845, 74843, 74465, 74282, 74276, 74237, 74114, 74068, 74035, 73989, 73534, 73461, 73309, 73049, 72948, 72819, 72757, 72517, 72376, 72336, 72308, 72247, 72101, 75736, 76342, 75973, 75758, 75728, 76749, 76742, 76243, 76219, 76218, 75848, 75827, 75575, 75552, 75525, 75422, 75363, 75218, 75208, 75207, 75205, 75186, 75182, 75160, 75163, 75146, 75138, 75128, 75119, 74916, 74910, 74900, 74865, 74706, 74703, 74700, 74696, 74694, 74675, 74663, 74650, 74651, 74642, 74632, 74497, 74473, 74344, 74317, 74290, 74268, 74123, 74084, 74061, 74022, 73995, 73937, 73513, 73490, 73453, 73304, 73253, 73213, 73198, 73188, 73020, 72964, 72954, 72786, 72773, 72698, 152056, 72519, 72496, 72489, 72384, 72326, 72325, 72302, 72231, 72223, 72197, 72170, 72088, 72002, 71974, 71868, 119039, 76251, 75729, 75653, 75643, 76169, 76672, 76431, 76254, 76249, 76072, 75862, 75648, 75625, 76950, 76222, 74070, 76643, 75929, 75178, 75144, 75136, 75123, 74278, 74080, 74043, 73488, 72697, 72641, 72351, 72102, 72089, 72510, 118370, 118241, 77028, 76963, 209310, 118547, 119967, 139107, 120131, 130662, 70386, 118299, 71051, 119367, 120145, 119622, 118944, 118943, 118605, 118604, 118540, 119535, 119357, 119277, 118298, 140847, 120593, 120146, 120144, 145958, 212189, 142048, 120130, 120140, 167375, 77051, 76945, 118696, 77069, 73743, 174952, 118543, 119360, 70681, 120967, 119642, 119445, 118961, 118425, 136167, 119205, 70348, 120504, 119358, 118532, 118264, 118259, 147740, 119300, 184149, 138583, 120708, 129784, 120276, 120166, 145934, 119982, 70245, 145891, 160191, 118372]</t>
+  </si>
+  <si>
+    <t>[118686, 73539, 76131, 75945, 75522, 75411, 75398, 74917, 74518, 73702, 73520, 73015, 72683, 72666, 72142, 72093, 71963, 76746, 76489, 75610, 75598, 75197, 74919, 74913, 74877, 74665, 74648, 74075, 73773, 73712, 73544, 73535, 73519, 73492, 73480, 73334, 73317, 73279, 73232, 73221, 73089, 73085, 73076, 72787, 72473, 72398, 72371, 77049, 75667, 76520, 76497, 76496, 76488, 76405, 76238, 76237, 76128, 75593, 75574, 75436, 75427, 75381, 75151, 75139, 74909, 74872, 74944, 74936, 74933, 74644, 74625, 74621, 74504, 74500, 74487, 74338, 74218, 74305, 74298, 74233, 74229, 74125, 74120, 74099, 74085, 74067, 74066, 74057, 74020, 73993, 73958, 73959, 73791, 73768, 73737, 73714, 73710, 73564, 73545, 73530, 73441, 73439, 73325, 73282, 73265, 73255, 73240, 73088, 73048, 73044, 73017, 73004, 72974, 152009, 72837, 72829, 72816, 72753, 72754, 72676, 152051, 72609, 72605, 72601, 72503, 72500, 72471, 72465, 72392, 72369, 72366, 72357, 72350, 72337, 72312, 72227, 71998, 71997, 71969, 71946, 71942, 71906, 75668, 76941, 76257, 76166, 75762, 75633, 75623, 76604, 75961, 76867, 75976, 76964, 76820, 73917, 73750, 70390, 140824, 170892, 210289, 70828, 149861, 209959, 71090, 158761, 120998, 74945, 167632, 74309, 76588, 119520, 118608, 119446, 205614, 118631, 118606, 118247, 179933, 166175, 70936, 129747, 145937, 119876, 139105, 120120, 119699, 118447, 175114, 70418, 118541, 124920, 70707, 212325, 129660, 129672, 118471, 120696, 208891, 175318, 174786, 192382, 70893, 120251, 119945, 119869, 119618, 118937, 118949, 118612, 118545, 118421, 118417, 178213, 150942, 119544, 119190, 118435, 118290, 138227, 125206, 70983, 210187, 212255, 120855, 120582, 145953, 120596, 209967, 143909, 71078, 212299, 120244, 145885, 118294, 210303, 120957, 120587, 161855, 185530, 145969, 118518, 70835, 174955, 118871, 77042, 118887, 118874, 118716, 118692, 76821, 118693, 146006, 145761, 74272, 76017, 166435]</t>
+  </si>
+  <si>
+    <t>[119193, 118253, 118538, 119274, 119294, 184658, 205652, 146042, 76756, 77024, 76826, 76822, 146013, 76859, 76778, 146034, 72154, 75940, 75387, 75190, 75175, 75148, 74516, 73740, 73675, 73509, 73246, 72975, 72050, 76608, 76349, 77010, 76927, 76037, 75947, 75605, 75577, 75201, 74908, 74883, 74852, 74293, 73986, 73950, 73784, 73777, 73774, 73756, 73677, 73676, 73547, 73068, 72967, 72842, 72742, 72664, 72602, 72541, 72518, 72248, 72175, 76612, 75863, 76675, 76755, 76653, 76650, 76501, 76412, 76411, 76397, 75841, 75606, 75602, 75567, 75565, 75388, 75359, 75212, 75181, 75164, 75152, 75153, 75147, 75142, 75130, 75117, 75111, 74870, 75003, 74991, 74973, 74934, 74930, 74709, 74686, 74680, 74652, 74522, 74521, 74485, 74445, 74331, 74323, 74266, 74023, 73938, 73927, 73753, 73723, 73531, 73516, 73476, 73458, 73321, 73302, 73284, 73217, 73206, 73203, 73008, 72988, 72973, 72956, 72937, 72935, 72833, 72812, 72806, 72796, 72768, 72746, 72699, 72678, 72675, 72654, 72646, 72645, 152048, 72619, 72540, 72534, 72484, 72482, 72462, 72459, 72374, 72354, 72349, 72327, 72320, 72317, 72309, 72238, 72237, 72217, 72216, 72200, 72201, 72196, 72187, 72167, 72144, 72106, 72090, 72042, 71976, 71944, 71805, 76882, 76874, 76170, 75956, 75659, 75651, 75646, 118694, 76847, 76158, 75649, 76763, 76157, 74463, 73487, 72945, 75532, 74849, 77192, 74443, 73511, 73250, 72453, 72147, 72062, 71993, 75360, 72625, 120238, 214513, 71113, 70350, 120856, 160223, 208911, 150860, 118431, 207124, 71135, 178057, 150814, 119530, 120344, 187686, 71010, 70764, 120969, 120590, 120155, 118466, 214469, 171612, 158429, 144362, 120706, 118952, 118777, 118345, 119027, 71081, 207134, 177814, 164785, 161829, 70858, 70628, 70485, 70458, 119867, 209332, 193358, 140317, 119877, 209334, 211833, 212437, 183315, 179102, 125218, 146036, 168172, 120705, 192734, 205618, 210643, 77054, 77045, 146012, 77017, 120052, 119449, 119359, 118354, 118242, 119958, 118291, 119880, 118245, 118418, 118260, 119545, 120471, 119191, 118452, 129661, 119634]</t>
+  </si>
+  <si>
+    <t>[118853, 212425, 208477, 140320, 177819, 75804, 214537, 138188, 76735, 75005, 74978, 74623, 77058, 76929, 76830, 75939, 73730, 73183, 72383, 76154, 75743, 75726, 72831, 70536, 70353, 120278, 119297, 119721, 145878, 119133, 118962, 125202, 70565, 70563, 70457, 129677, 158500, 210941, 205654, 205636, 214711, 206200, 138184, 158873, 136180, 70570, 215445, 70939, 143475, 135880, 168211, 71106, 172357, 168293, 166225, 145787, 138584, 158784, 170914, 70349, 170871, 149860, 70990, 76194, 211637, 205607, 144816, 148922, 130660, 179179, 179457, 118618, 118344, 177956, 120047, 147120, 142050, 120990, 119030, 120599, 184316, 149312, 148864, 120070, 184651, 181013, 174785, 209146, 146352, 142233, 146355, 70599, 171356, 209947, 120594, 129785, 120271, 120143, 120081, 71152, 120044, 118959, 118789, 118776, 118542, 118534, 208476, 158451, 158471, 143053, 139109, 134213, 70918, 178651, 186655, 160216, 119625, 119534, 119113, 118788, 118533, 127736, 176568, 210053, 147521, 209627, 207518, 183477, 183478, 173224, 171420, 186653, 145368, 136181, 210073, 125184, 70915, 70791, 70770, 139803, 70683, 70662, 210007, 70638, 70632, 70598, 70564, 70486, 70481, 70427, 70419, 70394, 212445, 212219, 212351, 120833, 120616, 120591, 129704, 120247, 120249, 120141, 120142, 120084, 119954, 120835, 159555, 129748, 120277, 120160, 119894, 118609, 129793, 119188, 118779, 209633, 205665, 167383, 166244, 158763, 144367, 138186, 70591, 212205, 120139, 214495, 171611, 70637, 133477, 168184, 182294, 179085, 119189, 120811, 157302, 71053, 165163, 163579, 70355, 181685, 129751, 210937, 205664, 70276, 145413, 120284, 119442, 70655, 179473, 164076, 163581, 70429, 70509, 145849, 118683, 118695, 145850, 118854, 118878, 76942, 76883, 136515, 70834, 175113, 158786, 163584, 214521]</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>309</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>190</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>389</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
